--- a/forms/Form-3SU.xlsx
+++ b/forms/Form-3SU.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\Data dissemination\iotc-reference-data\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E67473E-D3DE-4500-81A9-41FF654657D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4524AEA-0A14-4AF6-A483-FEB83A375E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="4mbFqzulwj8Pg0a/7gnWM1p9jMeRclMsYoCmR6g8rJxgOGlNtN9EbZKG7p/K8hbS/NX9el7E2EjNI616mXRF6w==" workbookSaltValue="nW8nhgORP/ZB/XoWBGQQ3w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="33075" yWindow="3990" windowWidth="21585" windowHeight="11295" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -585,7 +585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -690,6 +690,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -731,20 +744,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1087,24 +1086,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="34"/>
@@ -1154,15 +1153,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="24"/>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="27"/>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="46"/>
+      <c r="G8" s="50"/>
       <c r="H8" s="23"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1185,7 +1184,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="27"/>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="27" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="3"/>
@@ -1273,7 +1272,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="24"/>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="43" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="14"/>
@@ -1284,7 +1283,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="24"/>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="44" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="14"/>
@@ -1327,13 +1326,13 @@
       <c r="C24" s="31"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
       <c r="H24" s="23"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="24"/>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="14"/>
@@ -1353,7 +1352,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="24"/>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="43" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="14"/>
@@ -1364,7 +1363,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="24"/>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="14"/>
@@ -1375,7 +1374,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="24"/>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="43" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="14"/>
@@ -1386,7 +1385,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="24"/>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="14"/>
@@ -1448,11 +1447,11 @@
     </row>
     <row r="36" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="24"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="45"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="49"/>
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1523,40 +1522,40 @@
       <c r="E1" s="10"/>
     </row>
     <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
     </row>
     <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="40" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="45" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="46" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1861,7 +1860,7 @@
       <c r="E55" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9TceBbonyJ6SDXmn58WMVIOlYgkT2KxOBoGxytvQoE7wxAo8nrtxUV4k6mvPfDMRBi89YWcQLbT2Nl047Xspnw==" saltValue="aw17Ls1rB6Ze5S2p8CvJCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BQwRcIQSaoraO9q8X9GsOtIDlXcrUKAbZ/C3R+LA39F4p7q4W/uVc5dAEBhb76uww12pKsLWCNlTd7Ql8YGusw==" saltValue="N4pU1zpswutdyUw93vsfUA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="B2:E3"/>
     <mergeCell ref="B4:D4"/>

--- a/forms/Form-3SU.xlsx
+++ b/forms/Form-3SU.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4524AEA-0A14-4AF6-A483-FEB83A375E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5E513A-DD8F-48B8-9DA5-713834F00AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="4mbFqzulwj8Pg0a/7gnWM1p9jMeRclMsYoCmR6g8rJxgOGlNtN9EbZKG7p/K8hbS/NX9el7E2EjNI616mXRF6w==" workbookSaltValue="nW8nhgORP/ZB/XoWBGQQ3w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="33075" yWindow="3990" windowWidth="21585" windowHeight="11295" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +204,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -683,25 +702,11 @@
     <xf numFmtId="2" fontId="1" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -744,13 +749,35 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1086,24 +1113,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="34"/>
@@ -1153,15 +1180,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="24"/>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="50"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="27"/>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="50"/>
+      <c r="G8" s="46"/>
       <c r="H8" s="23"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1272,7 +1299,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="24"/>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="41" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="14"/>
@@ -1283,7 +1310,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="24"/>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="42" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="14"/>
@@ -1326,13 +1353,13 @@
       <c r="C24" s="31"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
       <c r="H24" s="23"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="24"/>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="41" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="14"/>
@@ -1352,7 +1379,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="24"/>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="41" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="14"/>
@@ -1363,7 +1390,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="24"/>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="41" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="14"/>
@@ -1374,7 +1401,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="24"/>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="41" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="14"/>
@@ -1385,7 +1412,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="24"/>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="41" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="14"/>
@@ -1447,11 +1474,11 @@
     </row>
     <row r="36" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="24"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="49"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="45"/>
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1522,40 +1549,40 @@
       <c r="E1" s="10"/>
     </row>
     <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
     </row>
     <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="40" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="57" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1860,11 +1887,16 @@
       <c r="E55" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BQwRcIQSaoraO9q8X9GsOtIDlXcrUKAbZ/C3R+LA39F4p7q4W/uVc5dAEBhb76uww12pKsLWCNlTd7Ql8YGusw==" saltValue="N4pU1zpswutdyUw93vsfUA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BnWkNyVVC4c1Ai4mdyKiYoYojp46tJfJleI2WKez5uJqt6yj3VYHgFsllSA8bZJs+EMB1NjYc0biA6zy+5MZAg==" saltValue="dspTYSzST3xtGR5nM1DrqA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="B2:E3"/>
     <mergeCell ref="B4:D4"/>
   </mergeCells>
+  <conditionalFormatting sqref="B6:E1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>B6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:D5" xr:uid="{6A7E0A0C-0885-41B5-9887-5CD1EB994233}">
       <formula1>"&lt;0&gt;0"</formula1>

--- a/forms/Form-3SU.xlsx
+++ b/forms/Form-3SU.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5E513A-DD8F-48B8-9DA5-713834F00AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704CE928-837A-4FEA-98EF-75BEA78379CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="4mbFqzulwj8Pg0a/7gnWM1p9jMeRclMsYoCmR6g8rJxgOGlNtN9EbZKG7p/K8hbS/NX9el7E2EjNI616mXRF6w==" workbookSaltValue="nW8nhgORP/ZB/XoWBGQQ3w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -708,6 +708,20 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -749,20 +763,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1113,24 +1113,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="34"/>
@@ -1180,15 +1180,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="24"/>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="27"/>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="46"/>
+      <c r="G8" s="50"/>
       <c r="H8" s="23"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1353,8 +1353,8 @@
       <c r="C24" s="31"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
       <c r="H24" s="23"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -1474,11 +1474,11 @@
     </row>
     <row r="36" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="24"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="45"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="49"/>
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1526,7 +1526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C098252-FABC-4161-882E-794F98E79BC6}">
   <dimension ref="B1:E55"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -1549,40 +1549,40 @@
       <c r="E1" s="10"/>
     </row>
     <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
     </row>
     <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="40" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="44" t="s">
         <v>24</v>
       </c>
     </row>

--- a/forms/Form-3SU.xlsx
+++ b/forms/Form-3SU.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704CE928-837A-4FEA-98EF-75BEA78379CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD9A7C2-0ECF-497B-B116-A7C34382CA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="4mbFqzulwj8Pg0a/7gnWM1p9jMeRclMsYoCmR6g8rJxgOGlNtN9EbZKG7p/K8hbS/NX9el7E2EjNI616mXRF6w==" workbookSaltValue="nW8nhgORP/ZB/XoWBGQQ3w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1097,7 +1097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D41B5-AC8B-4133-9C08-EAF515BF72F5}">
   <dimension ref="B1:H38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
